--- a/data/normal_map_long.xlsx
+++ b/data/normal_map_long.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C243"/>
+  <dimension ref="A1:C268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -912,3655 +912,4080 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Lower Conjunctiva</t>
+          <t>Conjunctiva</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>下部结膜</t>
+          <t>结膜</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>下结膜</t>
+          <t>眼结膜</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Lower Conjunctiva</t>
+          <t>Conjunctiva</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>下结膜</t>
+          <t>睑结膜</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>下结膜</t>
+          <t>眼结膜</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Lower Half of the Conjunctiva</t>
+          <t>Lower Conjunctiva</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>结膜下半</t>
+          <t>下部结膜</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>结膜下半</t>
+          <t>下结膜</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Appendix</t>
+          <t>Lower Conjunctiva</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>阑尾</t>
+          <t>下结膜</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>阑尾</t>
+          <t>下结膜</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Epiglottis</t>
+          <t>Lower Half of the Conjunctiva</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>会厌</t>
+          <t>结膜下半</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>会厌</t>
+          <t>结膜下半</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Esophagus</t>
+          <t>Appendix</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>食道</t>
+          <t>阑尾</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>食道</t>
+          <t>阑尾</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Gallbladder</t>
+          <t>Epiglottis</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>胆囊</t>
+          <t>会厌</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>胆囊</t>
+          <t>会厌</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Gallbladder</t>
+          <t>Esophagus</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>胆</t>
+          <t>食道</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>胆囊</t>
+          <t>食道</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Pyloric Part of the Stomach</t>
+          <t>Gallbladder</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>胃的幽门部</t>
+          <t>胆囊</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>幽门部</t>
+          <t>胆囊</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Pyloric Part of the Stomach</t>
+          <t>Gallbladder</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>幽门部</t>
+          <t>胆</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>幽门部</t>
+          <t>胆囊</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Stomach Shu Point</t>
+          <t>Pyloric Part of the Stomach</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>胃俞穴</t>
+          <t>胃的幽门部</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>胃俞穴</t>
+          <t>幽门部</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Stomach</t>
+          <t>Pyloric Part of the Stomach</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>胃</t>
+          <t>幽门部</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>胃</t>
+          <t>幽门部</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Stomach</t>
+          <t>Stomach Shu Point</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>全胃</t>
+          <t>胃俞穴</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>胃</t>
+          <t>胃俞穴</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Navel Hole</t>
+          <t>Stomach</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>脐孔</t>
+          <t>胃</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>脐孔</t>
+          <t>胃</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Inner Surface of the Abdominal Cavity</t>
+          <t>Stomach</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>腹腔的内表面</t>
+          <t>全胃</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>腹腔的内表面</t>
+          <t>胃</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Waist</t>
+          <t>Navel Hole</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>腰</t>
+          <t>脐孔</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>腰</t>
+          <t>脐孔</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Groin</t>
+          <t>Inner Surface of the Abdominal Cavity</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>腹股沟</t>
+          <t>腹腔的内表面</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>腹股沟</t>
+          <t>腹腔的内表面</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Pancreas</t>
+          <t>Waist</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>胰脏</t>
+          <t>腰</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>胰</t>
+          <t>腰</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Pancreas</t>
+          <t>Groin</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>胰</t>
+          <t>腹股沟</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>胰</t>
+          <t>腹股沟</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Duodenum</t>
+          <t>Pancreas</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>十二指肠</t>
+          <t>胰脏</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>十二指肠</t>
+          <t>胰</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sigmoid Colon</t>
+          <t>Pancreas</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>乙状结肠</t>
+          <t>胰</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>乙状结肠</t>
+          <t>胰</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Large Intestine</t>
+          <t>Duodenum</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>大肠</t>
+          <t>十二指肠</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>大肠</t>
+          <t>十二指肠</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Entire Large Intestine</t>
+          <t>Sigmoid Colon</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>全大肠</t>
+          <t>乙状结肠</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>全大肠</t>
+          <t>乙状结肠</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Small Intestine</t>
+          <t>Large Intestine</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>小肠</t>
+          <t>大肠</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>小肠</t>
+          <t>大肠</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Small Intestine Shu</t>
+          <t>Entire Large Intestine</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>小肠俞</t>
+          <t>全大肠</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>小肠俞</t>
+          <t>全大肠</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Pericardium</t>
+          <t>Small Intestine</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>心包膜</t>
+          <t>小肠</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>心包</t>
+          <t>小肠</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Pericardium</t>
+          <t>Small Intestine Shu</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>心包</t>
+          <t>小肠俞</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>心包</t>
+          <t>小肠俞</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Chest</t>
+          <t>Pericardium</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>胸</t>
+          <t>心包膜</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>胸</t>
+          <t>心包</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Heart</t>
+          <t>Pericardium</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>心</t>
+          <t>心包</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>心</t>
+          <t>心包</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Heart</t>
+          <t>Chest</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>心脏</t>
+          <t>胸</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>心</t>
+          <t>胸</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Spleen</t>
+          <t>Heart</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>脾</t>
+          <t>心</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>脾</t>
+          <t>心</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Spleen</t>
+          <t>Heart</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>脾脏</t>
+          <t>心脏</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>脾</t>
+          <t>心</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Liver</t>
+          <t>Spleen</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>肝</t>
+          <t>脾</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>肝</t>
+          <t>脾</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Liver</t>
+          <t>Spleen</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>肝脏</t>
+          <t>脾脏</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>肝</t>
+          <t>脾</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Into the Abdomen to the Kidney</t>
+          <t>Liver</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>入腹后到肾</t>
+          <t>肝</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>入腹后到肾</t>
+          <t>肝</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Kidney</t>
+          <t>Liver</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>肾</t>
+          <t>肝脏</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>肾</t>
+          <t>肝</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Kidney</t>
+          <t>Into the Abdomen to the Kidney</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>肾脏</t>
+          <t>入腹后到肾</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>肾</t>
+          <t>入腹后到肾</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Bladder</t>
+          <t>Kidney</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>膀胱</t>
+          <t>肾</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>膀胱</t>
+          <t>肾</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Inner Mouth of the Urethra</t>
+          <t>Kidney</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>尿道内口</t>
+          <t>肾脏</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>尿道内口</t>
+          <t>肾</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Urethra</t>
+          <t>Kidney</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>尿道</t>
+          <t>入腹后到肾</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>尿道</t>
+          <t>肾</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Urethra</t>
+          <t>Kidney</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>尿道区域</t>
+          <t>入腹后肾</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>尿道</t>
+          <t>肾</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Genital Organs</t>
+          <t>Bladder</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>生殖器官</t>
+          <t>膀胱</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>生殖器官</t>
+          <t>膀胱</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Internal Genital Organs</t>
+          <t>Inner Mouth of the Urethra</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>内生殖器官</t>
+          <t>尿道内口</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>内生殖器官</t>
+          <t>尿道内口</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Testicle</t>
+          <t>Urethra</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>睾丸</t>
+          <t>尿道</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>睾丸</t>
+          <t>尿道</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Prostate</t>
+          <t>Urethra</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>前列腺</t>
+          <t>尿道区域</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>前列腺</t>
+          <t>尿道</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Genital Organs</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>后部</t>
+          <t>生殖器官</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>后部</t>
+          <t>生殖器官</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Front and Back Yin</t>
+          <t>Internal Genital Organs</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>前后二阴</t>
+          <t>内生殖器官</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>前后二阴</t>
+          <t>内生殖器官</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Vocal Cords</t>
+          <t>Testicle</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>声带</t>
+          <t>睾丸</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>声带</t>
+          <t>睾丸</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Brainstem</t>
+          <t>Prostate</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>脑干</t>
+          <t>前列腺</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>脑干</t>
+          <t>前列腺</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Brainstem</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>上入脑干</t>
+          <t>后部</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>脑干</t>
+          <t>后部</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Limbic Lobe</t>
+          <t>Front and Back Yin</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>边缘叶</t>
+          <t>前后二阴</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>边缘叶</t>
+          <t>前后二阴</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Cerebellum</t>
+          <t>Vocal Cords</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>小脑</t>
+          <t>声带</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>小脑</t>
+          <t>声带</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Language Center of the Brain</t>
+          <t>Pituitary</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>大脑语言中枢</t>
+          <t>脑垂体</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>大脑语言中枢</t>
+          <t>脑垂体</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Temporal Part of the Brain</t>
+          <t>Thalamus</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>大脑颞部</t>
+          <t>丘脑</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>大脑颞部</t>
+          <t>丘脑</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Temporal Side of the Brain</t>
+          <t>Brainstem</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>大脑颞侧</t>
+          <t>脑干</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>大脑颞侧</t>
+          <t>脑干</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Surface of the Brain</t>
+          <t>Brainstem</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>大脑表层</t>
+          <t>上入脑干</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>大脑表层</t>
+          <t>脑干</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Brain</t>
+          <t>Limbic Lobe</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>大脑</t>
+          <t>边缘叶</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>大脑</t>
+          <t>边缘叶</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Anus</t>
+          <t>Cerebellum</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>肛门</t>
+          <t>小脑</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>肛门</t>
+          <t>小脑</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Behind the Anus</t>
+          <t>Language Center of the Brain</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>肛门的后3</t>
+          <t>大脑语言中枢</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>肛门的后3</t>
+          <t>大脑语言中枢</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Front of the Anus on the Same Side</t>
+          <t>Temporal Part of the Brain</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>同侧肛门的前13</t>
+          <t>大脑颞部</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>同侧肛门的前13</t>
+          <t>大脑颞部</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Front of the Anus</t>
+          <t>Temporal Side of the Brain</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>肛门的前13</t>
+          <t>大脑颞侧</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>肛门的前13</t>
+          <t>大脑颞侧</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Inside of the Nostrils</t>
+          <t>Surface of the Brain</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>鼻孔内部</t>
+          <t>大脑表层</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>鼻孔内部</t>
+          <t>大脑表层</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Nasal Septum</t>
+          <t>Brain</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>鼻中隔</t>
+          <t>大脑</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>鼻中隔</t>
+          <t>大脑</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Interatrial Septum</t>
+          <t>Anus</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>心房室中隔</t>
+          <t>肛门</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>心房室中隔</t>
+          <t>肛门</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Interatrial Septum</t>
+          <t>Middle of the Anus</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>心房室中膈</t>
+          <t>肛门的中13</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>心房室中隔</t>
+          <t>肛门的中13</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Trachea</t>
+          <t>Back of the Anus</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>气管</t>
+          <t>肛门的后13</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>气管</t>
+          <t>肛门的后13</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Diaphragm Between Left and Right Heart</t>
+          <t>Behind the Anus</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>左右心间膈</t>
+          <t>肛门的后3</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>左右心间膈</t>
+          <t>肛门的后3</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Diaphragm</t>
+          <t>Front of the Anus on the Same Side</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>膈肌</t>
+          <t>同侧肛门的前13</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>膈肌</t>
+          <t>同侧肛门的前13</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Middle of the Diaphragm</t>
+          <t>Front of the Anus</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>膈肌的中13</t>
+          <t>肛门的前13</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>膈肌中13</t>
+          <t>肛门的前13</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Middle of the Diaphragm</t>
+          <t>Front of the Anus</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>膈肌中13</t>
+          <t>肛门前13</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>膈肌中13</t>
+          <t>肛门的前13</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Back of the Diaphragm</t>
+          <t>Inside of the Nostrils</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>膈肌的后13</t>
+          <t>鼻孔内部</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>膈肌后13</t>
+          <t>鼻孔内部</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Back of the Diaphragm</t>
+          <t>Inside of the Nostrils</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>膈肌后13</t>
+          <t>鼻孔内</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>膈肌后13</t>
+          <t>鼻孔内部</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Front of the Diaphragm</t>
+          <t>Nasal Septum</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>膈肌的前13</t>
+          <t>鼻中隔</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>膈肌前13</t>
+          <t>鼻中隔</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Front of the Diaphragm</t>
+          <t>Mediastinum</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>膈肌前13</t>
+          <t>纵隔</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>膈肌前13</t>
+          <t>纵隔</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Front and Back of the Diaphragm</t>
+          <t>Interatrial Septum</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>膈肌的前后13</t>
+          <t>心房室中隔</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>膈肌的前后13</t>
+          <t>心房室中隔</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Lung</t>
+          <t>Interatrial Septum</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>肺</t>
+          <t>心房室中膈</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>肺</t>
+          <t>心房室中隔</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Upper Lobe of the Lung</t>
+          <t>Trachea</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>肺上叶</t>
+          <t>气管</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>肺上叶</t>
+          <t>气管</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Scapula</t>
+          <t>Diaphragm Between Left and Right Heart</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>肩胛骨</t>
+          <t>左右心间膈</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>肩胛骨</t>
+          <t>左右心间膈</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Below the Scapular Hillock</t>
+          <t>Diaphragm</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>肩胛骨岗下窝</t>
+          <t>膈肌</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>肩胛骨岗下窝</t>
+          <t>膈肌</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Between the Eyebrows</t>
+          <t>Middle of the Diaphragm</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>两眉间</t>
+          <t>膈肌的中13</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>两眉间</t>
+          <t>膈肌中13</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Eyebrow</t>
+          <t>Middle of the Diaphragm</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>眉毛</t>
+          <t>膈肌中13</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>眉毛</t>
+          <t>膈肌中13</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Upper and Lower Eyelids</t>
+          <t>Back of the Diaphragm</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>上下眼睑</t>
+          <t>膈肌的后13</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>上下眼睑</t>
+          <t>膈肌后13</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Lower Eyelid</t>
+          <t>Back of the Diaphragm</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>下眼睑</t>
+          <t>膈肌后13</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>下眼睑</t>
+          <t>膈肌后13</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Upper Eyelid</t>
+          <t>Front of the Diaphragm</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>上眼睑</t>
+          <t>膈肌的前13</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>上眼睑</t>
+          <t>膈肌前13</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Upper Eyelid</t>
+          <t>Front of the Diaphragm</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>上眼眶</t>
+          <t>膈肌前13</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>上眼睑</t>
+          <t>膈肌前13</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Eyelid</t>
+          <t>Front and Back of the Diaphragm</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>眼睑</t>
+          <t>膈肌的前后13</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>眼睑</t>
+          <t>膈肌的前后13</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Below the Eye</t>
+          <t>Lung</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>目下</t>
+          <t>肺</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>目下</t>
+          <t>肺</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Below the Eye</t>
+          <t>Apex of the Lung</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>目下方</t>
+          <t>肺尖部</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>目下</t>
+          <t>肺尖部</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Below the Eye Socket</t>
+          <t>Upper Lobe of the Lung</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>下眼眶</t>
+          <t>肺上叶</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>下眼眶</t>
+          <t>肺上叶</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Upper Half of the Choroid of the Eye</t>
+          <t>Scapula</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>眼脉络膜的上半</t>
+          <t>肩胛骨</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>眼脉络膜的上半</t>
+          <t>肩胛骨</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Above the Outer Corner of the Eye</t>
+          <t>Below the Scapular Hillock</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>外眼角偏上</t>
+          <t>肩胛骨岗下窝</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>外眼角偏上</t>
+          <t>肩胛骨岗下窝</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Upper Area of the Inner Corner of the Eye</t>
+          <t>Between the Eyebrows</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>内眼角偏上方</t>
+          <t>两眉间</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>内眼角偏上方</t>
+          <t>两眉间</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Upper Area of the Outer Corner of the Eye</t>
+          <t>Eyebrow</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>眼外角偏上</t>
+          <t>眉毛</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>眼外角偏上</t>
+          <t>眉毛</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Upper Area of the Outer Corner of the Eye</t>
+          <t>Upper and Lower Eyelids</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>外眼角偏上方</t>
+          <t>上下眼睑</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>眼外角偏上</t>
+          <t>上下眼睑</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Inner Corner of the Eye</t>
+          <t>Lower Eyelid</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>内眼角</t>
+          <t>下眼睑</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>内眼角</t>
+          <t>下眼睑</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Outer Corner of the Eye</t>
+          <t>Lower Eyelid</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>外眼角</t>
+          <t>下睑</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>外眼角</t>
+          <t>下眼睑</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Upper Outer Corner of the Eye</t>
+          <t>Upper Eyelid</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>眼睛的外上角</t>
+          <t>上眼睑</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>眼睛的外上角</t>
+          <t>上眼睑</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>White of the Eye</t>
+          <t>Upper Eyelid</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>眼白睛</t>
+          <t>上眼眶</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>眼白睛</t>
+          <t>上眼睑</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Back of the Eyeball</t>
+          <t>Upper Eyelid</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>眼球后部</t>
+          <t>上眼睑内上方上颚</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>眼球后部</t>
+          <t>上眼睑</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Eyeball</t>
+          <t>Outside of the Eyelid</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>眼球</t>
+          <t>外侧眼睑</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>眼</t>
+          <t>外侧眼睑</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Eyeball</t>
+          <t>Eyelid</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>眼睛</t>
+          <t>眼睑</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>眼</t>
+          <t>眼睑</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Eyeball</t>
+          <t>Below the Eye</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>眼</t>
+          <t>目下</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>眼</t>
+          <t>目下</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Eyeball</t>
+          <t>Below the Eye</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>目</t>
+          <t>目下方</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>眼</t>
+          <t>目下</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Teeth</t>
+          <t>Below the Eye Socket</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>牙齿</t>
+          <t>下眼眶</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>牙</t>
+          <t>下眼眶</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Teeth</t>
+          <t>Upper Half of the Choroid of the Eye</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>牙</t>
+          <t>眼脉络膜的上半</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>牙</t>
+          <t>眼脉络膜的上半</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Teeth</t>
+          <t>Above the Outer Corner of the Eye</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>齿</t>
+          <t>外眼角偏上</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>牙</t>
+          <t>外眼角偏上</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Lower Gums</t>
+          <t>Upper Area of the Inner Corner of the Eye</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>下牙龈</t>
+          <t>内眼角偏上方</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>下牙龈</t>
+          <t>内眼角偏上方</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Inside Edge of Upper and Lower Gums</t>
+          <t>Upper Area of the Outer Corner of the Eye</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>上下牙龈内侧缘</t>
+          <t>眼外角偏上</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>牙龈内侧</t>
+          <t>眼外角偏上</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Inside Edge of Upper and Lower Gums</t>
+          <t>Upper Area of the Outer Corner of the Eye</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>牙龈内侧</t>
+          <t>外眼角偏上方</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>牙龈内侧</t>
+          <t>眼外角偏上</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Inside of the Upper Gums</t>
+          <t>Inner Corner of the Eye</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>上牙龈内侧</t>
+          <t>内眼角</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>上牙龈内侧</t>
+          <t>内眼角</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Inner Half of the Tonsil</t>
+          <t>Outer Corner of the Eye</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>扁桃体的内侧半</t>
+          <t>外眼角</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>扁桃体的内侧半</t>
+          <t>外眼角</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Back Half of the Tonsil</t>
+          <t>Upper Outer Corner of the Eye</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>扁桃体后半</t>
+          <t>眼睛的外上角</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>扁桃体后半</t>
+          <t>眼睛的外上角</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Back Half of the Tonsil</t>
+          <t>White of the Eye</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>扁桃体后半部</t>
+          <t>眼白睛</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>扁桃体后半</t>
+          <t>眼白睛</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Front Half of the Tonsil</t>
+          <t>Back of the Eyeball</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>扁桃体前半</t>
+          <t>眼球后部</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>扁桃体前半</t>
+          <t>眼球后部</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Front Half of the Tonsil</t>
+          <t>Back of the Eyeball</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>扁桃体的前半</t>
+          <t>眼球后面</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>扁桃体前半</t>
+          <t>眼球后部</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Throat</t>
+          <t>Inside the Eyeball</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>咽喉</t>
+          <t>眼球内部</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>咽喉</t>
+          <t>眼球内部</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Throat</t>
+          <t>Eyeball</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>喉咙</t>
+          <t>眼球</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>咽喉</t>
+          <t>眼</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Throat</t>
+          <t>Eyeball</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>到咽喉</t>
+          <t>眼睛</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>咽喉</t>
+          <t>眼</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Tonsils</t>
+          <t>Eyeball</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>扁桃体</t>
+          <t>眼</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>扁桃体</t>
+          <t>眼</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Angle of the Jaw</t>
+          <t>Eyeball</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>下颌角</t>
+          <t>目</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>下颌角</t>
+          <t>眼</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Upper and Lower Jaw</t>
+          <t>Teeth</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>上下颌</t>
+          <t>牙齿</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>上下颌</t>
+          <t>牙</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Lower Jaw Part</t>
+          <t>Teeth</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>下颌部</t>
+          <t>牙</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>颌下</t>
+          <t>牙</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Lower Jaw Part</t>
+          <t>Teeth</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>颌下</t>
+          <t>齿</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>颌下</t>
+          <t>牙</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Below the Lower Jaw</t>
+          <t>Lower Gums</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>下颌下</t>
+          <t>下牙龈</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>下颌下</t>
+          <t>下牙龈</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Below the Lower Jaw</t>
+          <t>Inside Edge of Upper and Lower Gums</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>下颌下缘</t>
+          <t>上下牙龈内侧缘</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>下颌下</t>
+          <t>牙龈内侧</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Side of the Tongue</t>
+          <t>Inside Edge of Upper and Lower Gums</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>舌边</t>
+          <t>牙龈内侧</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>舌边</t>
+          <t>牙龈内侧</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Side of the Tongue</t>
+          <t>Inside of the Upper Gums</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>舌边部</t>
+          <t>上牙龈内侧</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>舌边</t>
+          <t>上牙龈内侧</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Corner of the Mouth</t>
+          <t>Inner Half of the Tonsil</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>口角</t>
+          <t>扁桃体的内侧半</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>口角</t>
+          <t>扁桃体的内侧半</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Root of the Tongue</t>
+          <t>Back Half of the Tonsil</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>舌根</t>
+          <t>扁桃体后半</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>舌根</t>
+          <t>扁桃体后半</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Tongue</t>
+          <t>Back Half of the Tonsil</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>舌头</t>
+          <t>扁桃体后半部</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>舌</t>
+          <t>扁桃体后半</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Tongue</t>
+          <t>Front Half of the Tonsil</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>舌</t>
+          <t>扁桃体前半</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>舌</t>
+          <t>扁桃体前半</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Under the Tongue</t>
+          <t>Front Half of the Tonsil</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>舌下</t>
+          <t>扁桃体的前半</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>舌下</t>
+          <t>扁桃体前半</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Cheek</t>
+          <t>Throat</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>面颊</t>
+          <t>咽喉</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>面颊</t>
+          <t>咽喉</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Cheek</t>
+          <t>Throat</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>面颊部</t>
+          <t>喉咙</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>面颊</t>
+          <t>咽喉</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Around the Lips</t>
+          <t>Throat</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>环唇</t>
+          <t>到咽喉</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>环唇</t>
+          <t>咽喉</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Upper Lip</t>
+          <t>Tonsils</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>上唇</t>
+          <t>扁桃体</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>上唇</t>
+          <t>扁桃体</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Lower Lip</t>
+          <t>Angle of the Jaw</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>下唇</t>
+          <t>下颌角</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>下唇</t>
+          <t>下颌角</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Lips</t>
+          <t>Upper and Lower Jaw</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>口唇</t>
+          <t>上下颌</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>口唇</t>
+          <t>上下颌</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Lips</t>
+          <t>Lower Jaw Part</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>嘴唇</t>
+          <t>下颌部</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>口唇</t>
+          <t>颌下</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Lips</t>
+          <t>Lower Jaw Part</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>唇</t>
+          <t>颌下</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>口唇</t>
+          <t>颌下</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Facial Features</t>
+          <t>Below the Lower Jaw</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>面部五官</t>
+          <t>下颌下</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>面部五官</t>
+          <t>下颌下</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Nose</t>
+          <t>Below the Lower Jaw</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>鼻子</t>
+          <t>下颌下缘</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>鼻</t>
+          <t>下颌下</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Nose</t>
+          <t>Side of the Tongue</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>鼻</t>
+          <t>舌边</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>鼻</t>
+          <t>舌边</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Side of the Tongue</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>面部</t>
+          <t>舌边部</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>面部</t>
+          <t>舌边</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Reaching the Front of the Ear</t>
+          <t>Corner of the Mouth</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>达耳前部</t>
+          <t>口角</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>达耳前部</t>
+          <t>口角</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>In front of the Ear</t>
+          <t>Tip of the Tongue</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>耳前</t>
+          <t>舌尖</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>耳前</t>
+          <t>舌尖</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>In front of and below the Ear</t>
+          <t>Root of the Tongue</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>耳的前下方</t>
+          <t>舌根</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>耳的前下方</t>
+          <t>舌根</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Middle of the Outer Ear</t>
+          <t>Tongue</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>外耳中</t>
+          <t>舌头</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>外耳中</t>
+          <t>舌</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Inner Ear</t>
+          <t>Tongue</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>内耳</t>
+          <t>舌</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>内耳</t>
+          <t>舌</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Outer Ear</t>
+          <t>Under the Tongue</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>外耳</t>
+          <t>舌下</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>外耳</t>
+          <t>舌下</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Outer Ear</t>
+          <t>Cheek</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>耳朵外耳</t>
+          <t>面颊</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>外耳</t>
+          <t>面颊</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Ear Hole</t>
+          <t>Cheek</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>耳孔</t>
+          <t>面颊部</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>耳孔</t>
+          <t>面颊</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Ear</t>
+          <t>Around the Lips</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>耳</t>
+          <t>环唇</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>耳</t>
+          <t>环唇</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Ear</t>
+          <t>Upper Lip</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>耳朵</t>
+          <t>上唇</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>耳</t>
+          <t>上唇</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Inner Surface of the Skull</t>
+          <t>Lower Lip</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>脑壳内表面</t>
+          <t>下唇</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>脑壳内表面</t>
+          <t>下唇</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Inner Membrane of the Skull</t>
+          <t>Corner of the Lips</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>颅骨内膜</t>
+          <t>唇角</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>颅骨内膜</t>
+          <t>'唇角'</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Base of the Skull</t>
+          <t>Lips</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>颅底部</t>
+          <t>口唇</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>颅底</t>
+          <t>口唇</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Base of the Skull</t>
+          <t>Lips</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>颅底</t>
+          <t>嘴唇</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>颅底</t>
+          <t>口唇</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Skull</t>
+          <t>Lips</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>脑壳</t>
+          <t>唇</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>脑壳</t>
+          <t>口唇</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Head and Neck Area</t>
+          <t>Facial Features</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>头颈部</t>
+          <t>面部五官</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>头颈部</t>
+          <t>面部五官</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Head and Neck Area</t>
+          <t>Nose</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>头项部</t>
+          <t>鼻子</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>头颈部</t>
+          <t>鼻</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Neck Area</t>
+          <t>Nose</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>项部</t>
+          <t>鼻</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>项部</t>
+          <t>鼻</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Neck</t>
+          <t>Face</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>颈</t>
+          <t>面部</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>颈</t>
+          <t>面部</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Neck</t>
+          <t>Reaching the Front of the Ear</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>项</t>
+          <t>达耳前部</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>颈</t>
+          <t>达耳前部</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Outside of the Neck</t>
+          <t>In front of the Ear</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>项外侧</t>
+          <t>耳前</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>项外侧</t>
+          <t>耳前</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Scalp</t>
+          <t>In front of and below the Ear</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>头皮</t>
+          <t>耳的前下方</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>头皮</t>
+          <t>耳的前下方</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Scalp</t>
+          <t>Middle of the Outer Ear</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>头皮区域</t>
+          <t>外耳中</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>头皮</t>
+          <t>外耳中</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Back Lower Part of the Head</t>
+          <t>Inner Ear</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>头后下部</t>
+          <t>内耳</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>头后下部</t>
+          <t>内耳</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Back Lower Part of the Head</t>
+          <t>Outer Ear</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>头的后下部</t>
+          <t>外耳</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>头后下部</t>
+          <t>外耳</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Back of the Head</t>
+          <t>Outer Ear</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>后头部</t>
+          <t>耳朵外耳</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>后头部</t>
+          <t>外耳</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Back of the Head</t>
+          <t>Ear Hole</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>头后部</t>
+          <t>耳孔</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>后头部</t>
+          <t>耳孔</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Side of the Head</t>
+          <t>Ear Hole</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>头侧部</t>
+          <t>耳孔中</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>头侧部</t>
+          <t>耳孔</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Top of the Head</t>
+          <t>Ear</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>头顶</t>
+          <t>耳</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>头顶</t>
+          <t>耳</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Top of the Head</t>
+          <t>Ear</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>头的顶部</t>
+          <t>耳朵</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>头顶</t>
+          <t>耳</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Top of the Head</t>
+          <t>Inner Surface of the Skull</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>头顶部</t>
+          <t>脑壳内表面</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>头顶</t>
+          <t>脑壳内表面</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Top of the Head</t>
+          <t>Inner Membrane of the Skull</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>到头顶</t>
+          <t>颅骨内膜</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>头顶</t>
+          <t>颅骨内膜</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Head</t>
+          <t>Base of the Skull</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>头部</t>
+          <t>颅底部</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>头部</t>
+          <t>颅底</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Head</t>
+          <t>Base of the Skull</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>全头部</t>
+          <t>颅底</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>头部</t>
+          <t>颅底</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Head</t>
+          <t>Skull</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>全头</t>
+          <t>脑壳</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>头部</t>
+          <t>脑壳</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Head</t>
+          <t>Head and Neck Area</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>全头部区域</t>
+          <t>头颈部</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>头部</t>
+          <t>头颈部</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Forehead</t>
+          <t>Head and Neck Area</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>前额</t>
+          <t>头项部</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>前额</t>
+          <t>头颈部</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Head and Face</t>
+          <t>Temple</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>头面部</t>
+          <t>颞</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>头面</t>
+          <t>颞</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Head and Face</t>
+          <t>Temple</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>头面</t>
+          <t>头颞部</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>头面</t>
+          <t>颞</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Yintang Area of the Head</t>
+          <t>Temple</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>头的印堂穴区域</t>
+          <t>颞部</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>头的印堂穴区域</t>
+          <t>颞</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Angle of the Forehead</t>
+          <t>Neck Area</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>额角</t>
+          <t>项部</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>额角</t>
+          <t>项部</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Angle of the Forehead</t>
+          <t>Carotid Sinus</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>前额角</t>
+          <t>颈动脉窦</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>额角</t>
+          <t>颈动脉窦</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Upper Margin of the Forehead</t>
+          <t>Neck</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>前额上缘</t>
+          <t>颈</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>前额上缘</t>
+          <t>颈</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Palms of Hands and Feet</t>
+          <t>Neck</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>手足掌</t>
+          <t>项</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>手足掌</t>
+          <t>颈</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Fingers and Toes</t>
+          <t>Outside of the Neck</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>手足指</t>
+          <t>项外侧</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>手足指</t>
+          <t>项外侧</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Upper Outer Tubercle of the Humerus</t>
+          <t>Scalp</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>肱骨外上髁</t>
+          <t>头皮</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>肱骨外上髁</t>
+          <t>头皮</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Hematopoietic Bones Upper Arm</t>
+          <t>Scalp</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>造血相关的骨骼肱骨上段</t>
+          <t>头皮区域</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>造血相关的骨骼肱骨上段</t>
+          <t>头皮</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Hematopoietic Bones Upper Arm</t>
+          <t>Back Lower Part of the Head</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>成人造血骨骼肱骨上半</t>
+          <t>头后下部</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>造血相关的骨骼肱骨上段</t>
+          <t>头后下部</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Bone Marrow</t>
+          <t>Back Lower Part of the Head</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>骨髓</t>
+          <t>头的后下部</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>骨髓</t>
+          <t>头后下部</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Head of the Femur</t>
+          <t>Back of the Head</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>股骨头</t>
+          <t>后头部</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>股骨头</t>
+          <t>后头部</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Upper Femur, etc.</t>
+          <t>Back of the Head</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>股骨上段等</t>
+          <t>头后部</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>股骨上段等</t>
+          <t>后头部</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Upper Half of the Femur</t>
+          <t>Side of the Head</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>股骨上半</t>
+          <t>头侧部</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>股骨上半</t>
+          <t>头侧部</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Pubic Bone</t>
+          <t>Top of the Head</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>耻骨</t>
+          <t>头顶</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>耻骨</t>
+          <t>头顶</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Iliac Bone</t>
+          <t>Top of the Head</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>髂骨</t>
+          <t>头的顶部</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>髂骨</t>
+          <t>头顶</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Hip Bone</t>
+          <t>Top of the Head</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>髋骨</t>
+          <t>头顶部</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>髋骨</t>
+          <t>头顶</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Spinal Cord</t>
+          <t>Top of the Head</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>脊髓</t>
+          <t>到头顶</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>脊髓</t>
+          <t>头顶</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Lumbar Spine</t>
+          <t>Head</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>腰椎</t>
+          <t>头部</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>腰椎</t>
+          <t>头部</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Spine</t>
+          <t>Head</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>脊椎</t>
+          <t>全头部</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>脊椎</t>
+          <t>头部</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Cervical Spine</t>
+          <t>Head</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>颈椎</t>
+          <t>全头</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>颈椎</t>
+          <t>头部</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Lateral Malleolus</t>
+          <t>Head</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>外踝</t>
+          <t>全头部区域</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>外踝</t>
+          <t>头部</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Shoulder</t>
+          <t>Forehead</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>肩部</t>
+          <t>前额</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>肩部</t>
+          <t>前额</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Clavicle</t>
+          <t>Head and Face</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>锁骨</t>
+          <t>头面部</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>锁骨</t>
+          <t>头面</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Below the Edge of the Clavicle</t>
+          <t>Head and Face</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>锁骨下缘</t>
+          <t>头面</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>锁骨下缘</t>
+          <t>头面</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Uvula</t>
+          <t>Yintang Area of the Head</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>悬雍垂</t>
+          <t>头的印堂穴区域</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>悬雍垂</t>
+          <t>头的印堂穴区域</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Sublingual Gland</t>
+          <t>Angle of the Forehead</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>舌下腺</t>
+          <t>额角</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>舌下腺</t>
+          <t>额角</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Lacrimal Sac</t>
+          <t>Angle of the Forehead</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>泪囊</t>
+          <t>前额角</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>泪囊</t>
+          <t>额角</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Lacrimal Gland</t>
+          <t>Upper Margin of the Forehead</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>泪囊腺</t>
+          <t>前额上缘</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>泪腺</t>
+          <t>前额上缘</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Lacrimal Gland</t>
+          <t>Palms of Hands and Feet</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>泪腺</t>
+          <t>手足掌</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>泪腺</t>
+          <t>手足掌</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Thyroid</t>
+          <t>Fingers and Toes</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>甲状腺</t>
+          <t>手足指</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>甲状腺</t>
+          <t>手足指</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Choroid</t>
+          <t>Upper Outer Tubercle of the Humerus</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>脉络膜</t>
+          <t>肱骨外上髁</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>脉络膜</t>
+          <t>肱骨外上髁</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
+          <t>Hematopoietic Bones Upper Arm</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>造血相关的骨骼肱骨上段</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>造血相关的骨骼肱骨上段</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Hematopoietic Bones Upper Arm</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>成人造血骨骼肱骨上半</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>造血相关的骨骼肱骨上段</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Bone Marrow</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>骨髓</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>骨髓</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Head of the Femur</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>股骨头</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>股骨头</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Upper Femur, etc.</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>股骨上段等</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>股骨上段等</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Upper Half of the Femur</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>股骨上半</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>股骨上半</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Pubic Bone</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>耻骨</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>耻骨</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Iliac Bone</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>髂骨</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>髂骨</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Hip Bone</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>髋骨</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>髋骨</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Spinal Cord</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>脊髓</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>脊髓</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Lumbar Spine</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>腰椎</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>腰椎</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Spine</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>脊椎</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>脊椎</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Cervical Spine</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>颈椎</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>颈椎</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Lateral Malleolus</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>外踝</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>外踝</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Shoulder</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>肩部</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>肩部</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Clavicle</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>锁骨</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>锁骨</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Below the Edge of the Clavicle</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>锁骨下缘</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>锁骨下缘</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Uvula</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>悬雍垂</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>悬雍垂</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Sublingual Gland</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>舌下腺</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>舌下腺</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Lacrimal Sac</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>泪囊</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>泪囊</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Lacrimal Gland</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>泪囊腺</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>泪腺</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Lacrimal Gland</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>泪腺</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>泪腺</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Thyroid</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>甲状腺</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>甲状腺</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Choroid</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>脉络膜</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>脉络膜</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
           <t>Ischium</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
+      <c r="B267" t="inlineStr">
         <is>
           <t>坐骨</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
+      <c r="C267" t="inlineStr">
         <is>
           <t>坐骨</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>trunk</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>躯干</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>躯干</t>
         </is>
       </c>
     </row>
